--- a/article_class_1.xlsx
+++ b/article_class_1.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A223"/>
+  <dimension ref="A1:A543"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,1554 +443,3794 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Predicting multi-subsequent events and actors in public health emergencies: An event-based knowledge graph approach</t>
+          <t>百卅迢递究大“化”,千家嵯峨立新峰[J]</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Identifying underlying influential factors in information diffusion process on social media platform: A hybrid approach of data mining and time series regression</t>
+          <t>先进材料的原子制造[J]</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>An enhanced SIR dynamic model: the timing and changes in public opinion in the process of information diffusion</t>
+          <t>新兴二维材料在柔性能源存储和转换中的应用（英文）[J]</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Identifying and Assessing Innovation Pathways for Emerging Technologies: A Hybrid Approach Based on Text Mining and Altmetrics</t>
+          <t>半导体制造技术课程教学改革实践[J]</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Combining topic modeling and SAO semantic analysis to identify technological opportunities of emerging technologies</t>
+          <t>新世纪十年地幔地球化学研究进展[J]</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>A hybrid approach to detecting technological recombination based on text mining and patent network analysis</t>
+          <t>基于经验增强的自主场景探索[J]</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tracing the system transformations and innovation pathways of an emerging technology: Solid lipid nanoparticles</t>
+          <t>单材料几何微结构设计研究综述[J]</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Technology-driven mergers and acquisitions of Chinese acquirers: development of a multi-dimensional framework for post-innovation performance</t>
+          <t>专刊编辑序[J]</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Tech mining to generate indicators of future national technological competitiveness: Nano-Enhanced Drug Delivery (NEDD) in the US and China</t>
+          <t>三维视觉与智能图形专刊简介[J]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Analysis on patent collaborative patterns for emerging technologies: a case study of nano-enabled drug delivery</t>
+          <t>基于特征聚类的轻量级图像搜索系统[J]</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>How to combine term clumping and technology roadmapping for newly emerging science &amp; technology competitive intelligence: problem &amp; solution'' pattern based semantic TRIZ tool and case study</t>
+          <t>面向自动扫描的三维形状多层次局部匹配算法[J]</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>A patent analysis method to trace technology evolutionary pathways</t>
+          <t>面向3D打印的结构优化研究进展[J]</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Nano-enabled drug delivery: A research profile</t>
+          <t>基于机械结构的动态物体设计的研究进展[J]</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Triple Helix innovation in China's dye-sensitized solar cell industry: hybrid methods with semantic TRIZ and technology roadmapping</t>
+          <t>全自动深度相机三维扫描系统[J]</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A scientific citation recommendation model integrating network and text representations</t>
+          <t>3D打印中的几何计算研究进展[J]</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Towards an entity relation extraction framework in the cross-lingual context</t>
+          <t>图像适应算法中非冗余显著图的计算[J]</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Profiling the Users of High Influence on Social Media in the Context of Public Events</t>
+          <t>实时数字浮雕建模[J]</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Measuring and profiling the topical influence and sentiment contagion of public event stakeholders</t>
+          <t>勾画式局部颜色迁移[J]</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>An individual-group-merchant relation model for identifying fake online reviews: an empirical study on a Chinese e-commerce platform</t>
+          <t>打造学术一流的联合实验室——浙江大学视觉感知教育部-微软重点实验室[J]</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Sentiment Analysis of Japanese Tourism Online Reviews</t>
+          <t>非靶标技术在新污染物识别中的应用[J]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>High-Capacity Hard Carbon Pyrolyzed from Subbituminous Coal as Anode for Sodium-Ion Batteries</t>
+          <t>“医学地质与环境健康”专辑前言[J]</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Ultrathin phyllosilicate nanosheets as anode materials with superior rate performance for lithium ion batteries</t>
+          <t>成组毒理学分析仪在污染物识别与毒性测试中的应用[J]</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Similarity-based link prediction in social networks: A path and node combined approach</t>
+          <t>国家自然科学基金环境化学发展规划概况[J]</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>An Integrated Analysis of Topical and Emotional Evolution of Microblog Public Opinions on Public Emergencies</t>
+          <t>大气中活性气态汞的分析方法和赋存转化[J]</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Measuring and visualizing the contributions of Chinese and American LIS research institutions to emerging themes and salient themes</t>
+          <t>我国汞污染研究与履约进展[J]</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Visual Topical Analysis of Museum Collections</t>
+          <t>前言:环境化学与生态毒理学国家重点实验室专刊[J]</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>The Visual Subject Analysis of Library and Information Science Journals with Self-Organizing Map</t>
+          <t>单细胞分析技术在人类细胞图谱计划中的应用[J]</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Visual component plane analysis for the medical subjects based on a transaction log</t>
+          <t>生物效应导向的污染物分析研究新进展[J]</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Visual Health Subject Directory Analysis Based on Users' Traversal Activities</t>
+          <t>渤海生物和沉积物样品中汞同位素研究[A]</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Analyzing Competitive Technical Intelligence of Cell Phones with Self-organizing Map</t>
+          <t>效应引导的污染物分析与识别方法[J]</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Research on the relationships between Chinese journal impact factors and external web link counts and web impact factors</t>
+          <t>我国环境化学研究方兴未艾——第六届全国环境化学大会在上海隆重召开[J]</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Quantum chemical study of the inhibition properties of pyridine and its derivatives at an aluminum surface</t>
+          <t>神经毒性效应引导的环境污染物识别[A]</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>The knowledge linkage between science and technology influences corporate technological innovation: Evidence from scientific publications and patents</t>
+          <t>汞形态分析新方法[A]</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A network coupling approach to detecting hierarchical linkages between science and technology</t>
+          <t>环境污染物复合效应高通量筛选平台的开发[A]</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>An effective method for the protection of user health topic privacy for health information services</t>
+          <t>发展色谱与原子荧光联用技术,提高解决形态分析问题的能力[A]</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Predicting the evolution of scientific communities by interpretable machine learning approaches</t>
+          <t>锑的形态分析进展[J]</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A prediction model of users' attention transfer in the context of multitopic competition</t>
+          <t>基于离群点视角的颠覆性专利预测研究[J]</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Research complexity increases with scientists' academic age: Evidence from library and information science</t>
+          <t>美国重大科技项目人才培养机制研究及启示[J]</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Research on the Influence of Urban Subway on Neutral Current of High-Voltage Substations Along the Line Under Complex Environment</t>
+          <t>基于BERT词嵌入的专利检索策略研究[J]</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A citation-based research framework for exploring policy diffusion: Evidence from China's new energy policies</t>
+          <t>基于通用信息抽取模型的年鉴大事记知识图谱构建研究——以林业大事记知识图谱为例[J]</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A lightweight semantic-enhanced interactive network for efficient short-text matching</t>
+          <t>基于深度学习与语义挖掘的技术创新组合识别与追踪[J]</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>User profiling and role evaluation of government microbloggers in the context of public emergencies</t>
+          <t>融合多源数据的科研人员画像构建方法研究[J]</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Predicting social media rumours in the context of public health emergencies</t>
+          <t>基于专利数据的新兴技术产品市场扩张路径研究——以纳米导药系统为例[J]</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Bias against scientific novelty: A prepublication perspective</t>
+          <t>大数据视角下的技术创新路径识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Quantifying scientific breakthroughs by a novel disruption indicator based on knowledge entities</t>
+          <t>细胞体积对细胞生理功能的调控作用[J]</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Spatio-temporal dynamics and determinants of new energy policy diffusion in China: A policy citation approach</t>
+          <t>细胞力学中的若干问题[A]</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Severity assessment and the early warning mechanism of public events based on the comparison of microblogging characteristics</t>
+          <t>基于分子识别的免疫层析技术用于新冠肺炎感染的快速诊断[J]</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>BCMF: A bidirectional cross-modal fusion model for fake news detection</t>
+          <t>基于微流控芯片技术的癌症早期检测[A]</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A knowledge graph completion model integrating entity description and network structure</t>
+          <t>突发事件情境下社交媒体用户的言语行为分类研究[J]</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Identifying humanitarian information for emergency response by modeling the correlation and independence between text and images</t>
+          <t>突发事件情境下冲突观点与重叠共识研究[J]</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Adhesion behaviors of water droplets on bioinspired superhydrophobic surfaces</t>
+          <t>面向认知增强的国潮文化资源推荐策略[J]</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Ensemble correction model for aspect-level sentiment classification</t>
+          <t>多特征融合的专利价值预测——以5G技术为例[J]</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Research on the dynamic mechanism of group emotional expression in the crisis</t>
+          <t>内容生产及评论视角下的社交媒体关键用户识别[J]</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Identifying widely disseminated scientific papers on social media</t>
+          <t>突发传染病情境下社会化问答平台用户角色形成及转变——以知乎平台为例[J]</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Integrated knowledge content in an interdisciplinary field: identification, classification, and application</t>
+          <t>开放关联数据赋能书目数据的实践指南——评Linked Open Data Enabled Bibliographical Data(LODE-BD)3</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Finding citations for PubMed: a large-scale comparison between five freely available bibliographic data sources</t>
+          <t>跨平台网络舆情知识图谱构建及对比分析[J]</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A scientific citation recommendation model integrating network and text representations</t>
+          <t>中国特色情报学的基本范畴与核心命题[J]</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A simple and efficient text matching model based on deep interaction</t>
+          <t>2021“数据分析与应急情报”系列学术活动纪要[J]</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Understanding interdisciplinary knowledge integration through citance analysis: A case study on eHealth</t>
+          <t>基于表示学习的知识库问答模型研究[J]</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Prediction and Evolution of the Influence of Microblog Entries in the Context of Terrorist Events</t>
+          <t>基于热点主题识别的突发事件次生衍生事件探测[J]</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Understanding and predicting the dissemination of scientific papers on social media: a two-step simultaneous equation modeling-artificial neural network approach</t>
+          <t>恐怖事件情境下微博信息与评论用户的画像及比较[J]</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Combining deep neural network and bibliometric indicator for emerging research topic prediction</t>
+          <t>突发公共卫生事件中的科学应对与思考:图情专家谈新冠疫情[J]</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Profiling the Users of High Influence on Social Media in the Context of Public Events</t>
+          <t>突发事件应急情报分析[J]</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Measuring and profiling the topical influence and sentiment contagion of public event stakeholders</t>
+          <t>恐怖事件情境下微博信息组织与关联可视化[J]</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Intelligibility Enhancement Via Normal-to-Lombard Speech Conversion With Long Short-Term Memory Network and Bayesian Gaussian Mixture Model</t>
+          <t>反恐怖主义情报信息工作关联资源及其配置研究[J]</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Quantifying cross-disciplinary knowledge flow from the perspective of content: Introducing an approach based on knowledge memes</t>
+          <t>恐怖事件情境下微博影响力的预测及演化[J]</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Interpolation Method of Head-Related Transfer Functions Based on Common-Pole/Zero Modeling</t>
+          <t>基于深度学习的领域知识对齐模型研究:知识图谱视角[J]</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Single Channel multi-speaker speech Separation based on quantized ratio mask and residual network</t>
+          <t>反恐情报信息工作能力的体系框架研究[J]</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Location recommendation by combining geographical, categorical, and social preferences with location popularity</t>
+          <t>突发事件网络舆情关注点演化研究——基于利益相关者视角[J]</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Landscape Patterns and Building Functions for Urban Land-Use Classification from Remote Sensing Images at the Block Level: A Case Study of Wuchang District, Wuhan, China</t>
+          <t>突发公共卫生事件利益相关者的社会网络情感图谱研究[J]</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Uncovering sentiment and retweet patterns of disaster-related tweets from a spatiotemporal perspective - A case study of Hurricane Harvey</t>
+          <t>应急知识库系统构建的关键问题与模块划分研究[J]</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A mapping model of spectral tilt in normal-to-Lombard speech conversion for intelligibility enhancement</t>
+          <t>拥抱数据科学[J]</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>SPEECH INTELLIGIBILITY ENHANCEMENT USING NON-PARALLEL SPEAKING STYLE CONVERSION WITH STARGAN AND DYNAMIC RANGE COMPRESSION</t>
+          <t>数据挖掘课程的知识体系构建[J]</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>NORMAL-TO-LOMBARD SPEECH CONVERSION BY LSTM NETWORK AND BGMM FOR INTELLIGIBILITY ENHANCEMENT OF TELEPHONE SPEECH</t>
+          <t>从小数据到大数据——观点检索面临的三个挑战[J]</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A hierarchical approach to analyzing knowledge integration between two fieldsa case study on medical informatics and computer science</t>
+          <t>高校图书馆信息化水平评价指标体系研究[J]</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A near-end listening enhancement system by RNN-based noise cancellation and speech modification</t>
+          <t>科研机构对新兴主题的贡献度可视化研究——以中美图情科研机构为例[J]</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Factors affecting browsing duration on a health discussion forum: analysis of eye-tracking data</t>
+          <t>基于综合引用网络的专利价值评价研究[J]</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Prediction of Microblogging Influence and Measuring of Topical Influence in the Context of Terrorist Events</t>
+          <t>中美图情科研机构研究领域比较研究[J]</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>MULTI-SPEAKERS SPEECH SEPARATION BASED ON MODIFIED ATTRACTOR POINTS ESTIMATION AND GMM CLUSTERING</t>
+          <t>国内图书馆学情报学科研机构研究领域的可视化挖掘[J]</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Spectral Tilt Estimation for Speech Intelligibility Enhancement Using RNN Based on All-Pole Model</t>
+          <t>中美高校图情科研领域的比较分析[J]</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Image Contrast Enhancement Algorithm Based on GM(1,1) and Power Exponential Dynamic Decision</t>
+          <t>新兴主题探测方法及实证研究综述[J]</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Topical evolution patterns and temporal trends of microblogs on public health emergencies: An exploratory study of Ebola on Twitter and Weibo</t>
+          <t>基于自组织映射的期刊主题专业化与综合性分析[J]</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Toward effective automated weighted subject indexing: A comparison of different approaches in different environments</t>
+          <t>国外图书情报类期刊热点主题及发展趋势研究[J]</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Topic scientific community in science: a combined perspective of scientific collaboration and topics</t>
+          <t>论民众图书馆精神在互联网上的再现[J]</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Profiling users with tag networks in diffusion-based personalized recommendation</t>
+          <t>基于印刷版与电子版的学术期刊综合评价研究[J]</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Effective utilisation of JND for spatial parameters quantisation in 3D multichannel audio</t>
+          <t>数字图书馆关键技术的分析与启示(上)[J]</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>JND-based spatial parameter quantization of multichannel audio signals</t>
+          <t>基于原子/分子团簇结构的材料与器件制造[J]</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Using the comprehensive patent citation network (CPC) to evaluate patent value</t>
+          <t>基于原子/分子团簇结构的材料与器件制造[J]</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Mining document, concept, and term associations for effective biomedical retrieval: introducing MeSH-enhanced retrieval models</t>
+          <t>接力与超越：站在巨人的肩上攀登科学高峰[J]</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Visual topical analysis of Chinese and American Library and Information Science research institutions</t>
+          <t>“双一流”背景下研究生国际学术交流能力的培养：浙江大学UPP课程的设计与启示[J]</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Research on the semantic-based co-word analysis</t>
+          <t>聚氨酯胶粘剂的分子设计[J]</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>The impact of home business network attributes on Chinese outward foreign direct investment</t>
+          <t>植物天然产物合成生物学研究[J]</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Relational embeddedness in home-based network and dynamic capabilities: evidence from Chinese MNCs</t>
+          <t>国外海洋抗肿瘤活性物质的研究与开发[J]</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Computer-aided reaction solvent design based on transition state theory and COSMO-SAC</t>
+          <t>基于动态知识流动特征的有向技术融合预测方法研究[J]</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>The impact of knowledge attributes on technological learning routine within industrial clusters</t>
+          <t>全球企业创新指数2023——指标体系、量表开发与态势分析[J]</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Production network positions, innovation orientation and environmental dynamics: an empirical analysis of Chinese firms</t>
+          <t>从知识困境到认知陷阱:生成式技术驱动型信息生态系统安全问题研究[J]</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>User acceptance of software as a service: Evidence from customers of China's leading e-commerce company, Alibaba</t>
+          <t>冲突背景下国际政经关系多元数据联合分析[J]</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Knowledge-based dynamic capabilities and innovation in networked environments</t>
+          <t>从弱信号到机会：关于弱信号的相关研究进展[J]</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>From a marketplace of electronics to a digital entrepreneurial ecosystem (DEE): The emergence of a meta-organization in Zhongguancun, China</t>
+          <t>融合“科学-技术”知识关联的高颠覆性专利预测方法[J]</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Promoting the Development of Enterprise Niche: Case Study on China's Organizational Ambidexterity</t>
+          <t>突发公共卫生事件情境下视障人士的信息搜寻行为研究——基于情境任务型实验方法[J]</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Implementing Green IT Transformation for Sustainability: A Case Study in China</t>
+          <t>词汇位置功能视角下的交叉领域知识生长研究[J]</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Research from the perspective of resource orchestration on digital ecosystem</t>
+          <t>生物医学领域技术方法的知识增长模式研究[J]</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>The computation of boundary spanning for the IT-enabled commercial ecosystem</t>
+          <t>基于引文网络的高颠覆性专利知识扩散特征研究[J]</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Managing Innovation Paradox in the Sustainable Innovation Ecosystem: A Case Study of Ambidextrous Capability in a Focal Firm</t>
+          <t>舆论场观点极化现象研究：成因、识别与应对策略[J]</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>IT Boundary-spanning Capability Promotes Business Process Reengineering: Haier Case</t>
+          <t>海外交流对学者职业生涯的影响——以国家建设高水平大学公派联合培养博士研究生为例[J]</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Study on Modular Product Development and Market Oriented Management-A case study of Haier Group</t>
+          <t>人工智能生成内容（AIGC）的技术特征与形态演进[J]</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Research on Product Innovation Mode Based on Modularity Theory : A Case Study on Haier Product Innovation</t>
+          <t>数据信托的内涵、生成逻辑与实现路径——基于数据流通视角的分析[J]</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>The impact of early debut on scientists: Evidence from the Young Scientists Fund of the NSFC</t>
+          <t>多特征融合的专利价值预测——以5G技术为例[J]</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Unraveling Scientific Evolutionary Paths: An Embedding-Based Topic Analysis</t>
+          <t>创新型企业的论文与专利关联性研究——以基因工程领域为例[J]</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Contrastive learning enhanced deep neural network with serial regularization for high-dimensional tabular data</t>
+          <t>我国科技服务与产业协同发展的实践演进、建设成效与经验启示[J]</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Tree enhanced deep adaptive network for cancer prediction with high dimension low sample size microarray data</t>
+          <t>海外公共安全场景下的开源情报组织与分析方法研究——基于“事件-主题-相关者”的多源数据融合框架[J]</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Identifying the Roles of Research Entities in Technological Knowledge Flow Among Patents Assignees by Using Patent Citations</t>
+          <t>三元世界理论再认知及其与国家安全情报空间[J]</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Big data driven tech mining and ST&amp;I management: an introduction</t>
+          <t>基于标准体系建设的城市数据画像实施路径研究[J]</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Research on Potential Adverse Drug Reaction Forecasting Based on SAO Semantic Structure</t>
+          <t>科学计量学领域科研合作特征及空间集聚模式研究[J]</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Reviewer recommendation method for scientific research proposals: a case for NSFC</t>
+          <t>面向突发事件画像的社交媒体图像分类研究[J]</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>Germany's contribution to global carbon reduction might be underestimated - A new assessment based on scenario analysis with and without trade</t>
+          <t>国家安全战略信息需求建模与智能匹配研究[J]</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>In-Organization Ethics Power-Allocation Mechanisms and Members' Decision-Making Behavior</t>
+          <t>面向态势感知的国家安全事件图谱构建研究[J]</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>ITGInsight-discovering and visualizing research fronts in the scientific literature</t>
+          <t>面向突发事件应急管理的社交媒体多模态信息分析研究[J]</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Discovering technology opportunities based on the linkage between technology and business areas: matching patents and trademarks</t>
+          <t>国家安全大数据综合信息集成的战略思考与路径选择[J]</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Evaluating scientific impact of publications: combining citation polarity and purpose</t>
+          <t>数据驱动环境下数据画像若干问题探析[J]</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>Technology Opportunity Analysis: Combining SAO Networks and Link Prediction</t>
+          <t>突发事件背景下内容添加型转发微博的情绪与认知变化研究[J]</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>Measuring Technology Complementarity Between Enterprises With an hLDA Topic Model</t>
+          <t>技术交易中供需匹配影响因素研究——基于TOE框架的组态分析[J]</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>An ensemble learning framework for potential miRNA-disease association prediction with positive-unlabeled data</t>
+          <t>基于演化事件探测的学科领域科研社群演化特征研究——以图书馆学情报学为例[J]</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Revealing potential drug-disease-gene association patterns for precision medicine</t>
+          <t>中国特色情报学的基本范畴与核心命题[J]</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>How pharmaceutical innovation evolves: The path from science to technological development to marketable drugs</t>
+          <t>突发事件应急行动支撑信息的自动识别与分类研究[J]</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Improved Technology Similarity Measurement in the Medical Field based on Subject-Action-Object Semantic Structure: A Case Study of Alzheimer's Disease</t>
+          <t>全球变局下的风险管理研究[J]</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>Cost Analysis for Mass Customized Production of Satellites Based on Modularity</t>
+          <t>基于多层语义相似的技术供需文本匹配模型研究[J]</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Evolution of rural settlement in an inland nonmetropolitan region of China at a time of rapid urbanisation: The case of Gongyi</t>
+          <t>灾害事件下基于多模态融合的社交媒体信息丰富型推文识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>Research status and collaboration analysis based on big data mining: an empirical study of Alzheimer's disease</t>
+          <t>社交媒体环境下突发事件严重性评估和预警机制研究[J]</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Encapsulated X-Ray Detector Enabled by All-Inorganic Lead-Free Perovskite Film With High Sensitivity and Low Detection Limit</t>
+          <t>基于多层语义融合的图文信息情感分类研究[J]</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>How Green Transformational Leadership Affects Green Creativity: Creative Process Engagement as Intermediary Bond and Green Innovation Strategy as Boundary Spanner</t>
+          <t>面向国家安全场景的态势感知与分析方法研究[J]</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Lower Power, Better Uniformity, and Stability CBRAM Enabled by Graphene Nanohole Interface Engineering</t>
+          <t>突发事件舆情观点识别与分析研究评述[J]</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Measuring patent similarity with SAO semantic analysis</t>
+          <t>面向科学社会计算的数据组织与建模方法[J]</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>An integrated solution for detecting rising technology stars in co-inventor networks</t>
+          <t>突发事件情境下社交媒体高影响力用户画像研究[J]</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>An approach to identify emergent topics of technological convergence: A case study for 3D printing</t>
+          <t>灾害事件下社交媒体图文相关性研究[J]</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Evaluating the competitiveness of enterprise's technology based on LDA topic model</t>
+          <t>城市群视角下的主题发现与空间格局研究——以区域经济学文献为例[J]</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Identifying R&amp;D partners for dye-sensitized solar cells: a multi-level patent portfolio-based approach</t>
+          <t>基于知识图谱的“一带一路”投资问答系统构建[J]</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Negative Capacitance Black Phosphorus Transistors With Low SS</t>
+          <t>学术论文的社交媒体可见性预测研究[J]</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Imbalances between the Quantity and Quality of China's Solar Energy Research</t>
+          <t>区域公共安全数据治理与业务领域本体研究[J]</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Refining the Measurement of Topic Similarities Through Bibliographic Coupling and LDA</t>
+          <t>基于多模态数据语义融合的旅游在线评论有用性识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>A Factor Graph Approach for Attitude Estimation of Spacecraft Using a Stellar Gyroscope</t>
+          <t>基于知识模因级联网络的领域知识扩散模式分析[J]</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Zhengzhou - Political economy of an emerging Chinese megacity</t>
+          <t>场景的延伸:从科技情报到科技服务[J]</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Identifying R&amp;D partners using SAO analysis: a case study of dye-sensitised solar cells</t>
+          <t>面向城市数据画像构建的多源数据需求与融合方法研究[J]</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Research on Tourist Attraction Emergency Preparedness Capability Evaluation</t>
+          <t>基于ERGM的学科交叉领域知识连接机制实证研究[J]</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Evaluating sustainability of water-energy-food (WEF) nexus using an improved matter-element extension model: A case study of China</t>
+          <t>自然灾害事件微博热点话题的时空对比分析[J]</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>High-Quality Reconfigurable Black Phosphorus p-n Junctions</t>
+          <t>社交媒体群体性信息交流过程中表情符号使用差异与语义研究——以微信群为例[J]</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>MoS2 Synaptic Transistor With Tunable Weight Profile</t>
+          <t>基于研究兴趣相似性网络的我国图书馆学研究社群分析[J]</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Requirement-oriented core technological components' identification based on SAO analysis</t>
+          <t>学科领域科研产出的空间分布规律研究——以计算机软件与应用学科为例[J]</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Early insights on the Emerging Sources Citation Index (ESCI): an overlay map-based bibliometric study</t>
+          <t>恐怖事件情境下微博信息组织与关联可视化[J]</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Measuring interdisciplinarity of a research system: detecting distinction between publication categories and citation categories</t>
+          <t>基于机器学习的社交媒体用户分类研究[J]</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Combining SAO semantic analysis and morphology analysis to identify technology opportunities</t>
+          <t>基于城市大数据的城市数据画像构建[J]</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>Identifying R&amp;D partners through Subject-Action-Object semantic analysis in a problem &amp; solution pattern</t>
+          <t>面向精细化治理的城市画像:构成要素与应用体系[J]</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>SAO Semantic Information Identification for Text Mining</t>
+          <t>基于指数随机图模型的专利引用关系形成机制研究——以奈拉滨药物为例[J]</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>How Does National Scientific Funding Support Emerging Interdisciplinary Research: A Comparison Study of Big Data Research in the US and China</t>
+          <t>基于Word2Vec的医学知识组织系统互操作研究——以词表间语义映射为例[J]</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>Subject-action-object-based morphology analysis for determining the direction of technological change</t>
+          <t>学科交叉研究的演化阶段特征分析——以医学信息学为例[J]</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>KDP-Net: An Efficient Semantic Segmentation Network for Emergency Landing of Unmanned Aerial Vehicles</t>
+          <t>基于语义本体的价值单元统一描述模型[J]</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Multiscale Fusion of Panchromatic and Multispectral Images Based on Adaptive Iterative Filtering</t>
+          <t>公共事件意见领袖的认知相符与失调研究[J]</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Lightweight Encryption and Authentication for Controller Area Network of Autonomous Vehicles</t>
+          <t>城市网络形象监测系统的设计与实现[J]</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Collaborative Intrusion Detection System for SDVN: A Fairness Federated Deep Learning Approach</t>
+          <t>专利引用关系形成的解释框架:一个指数随机图模型视角[J]</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>An effective method for figures and tables detection in academic literature</t>
+          <t>微信群会话话题强度计算及演化分析[J]</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Recursive Self-Attention Modules-Based Network for Panchromatic and Multispectral Image Fusion</t>
+          <t>突发事件信息传播网络中的关键节点动态识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Feasibility and Safety of Remazolam versus Propofol When Inserting Laryngeal Masks Without Muscle Relaxants During Hysteroscopy</t>
+          <t>数字空间视角下的城市数据画像理论思考[J]</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>Task-Driven Onboard Real-Time Panchromatic Multispectral Fusion Processing Approach for High-Resolution Optical Remote Sensing Satellite</t>
+          <t>基于主题一致性和情感支持的评论意见领袖识别方法研究[J]</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Contemporary Update of Retinoblastoma in China: Three-Decade Changes in Epidemiology, Clinical Features, Treatments, and Outcomes</t>
+          <t>基于成员合作共现的微信群内部关系研究[J]</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>Fine-grained citation count prediction via a transformer-based model with among-attention mechanism</t>
+          <t>微信群内部信息交流的网络结构、行为及其演化分析——基于会话分析视角[J]</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Data set entity recognition based on distant supervision</t>
+          <t>大数据环境下面向决策全流程的应急信息融合研究[J]</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Aggregating large-scale databases for PubMed author name disambiguation</t>
+          <t>反恐情报信息工作能力的体系框架研究[J]</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>Extraction and Evaluation of Knowledge Entities from Scientific Documents</t>
+          <t>突发事件网络舆情关注点演化研究——基于利益相关者视角[J]</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Detecting research topic trends by author-defined keyword frequency</t>
+          <t>微信群潜水者角色识别及行为动因分析[J]</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Exploring multiple diversification strategies for academic citation contexts recommendation</t>
+          <t>国家安全大数据综合信息集成:应用架构与实现路径[J]</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>LERI: Local Exploration for Rare-Category Identification</t>
+          <t>数据科学及其对情报学变革的影响[J]</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Exploring direct citations between citing publications</t>
+          <t>微信群会话网络结构及成员角色划分研究[J]</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Partitioning highly, medium and lowly cited publications</t>
+          <t>基于核心作者研究兴趣相似性网络的社群隶属研究*——以国内情报学领域为例[J]</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Creating a Children-Friendly Reading Environment via Joint Learning of Content and Human Attention</t>
+          <t>微信群中会话网络结构及用户交互行为分析[J]</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Think Beyond the Word: Understanding the Implied Textual Meaning by Digesting Context, Local, and Noise</t>
+          <t>基于价值链的中小企业状态跟踪和信息共享解决框架[J]</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Mining Author Identifiers for PubMed by Linking to Open Bibliographic Databases</t>
+          <t>实施国家大数据战略,建设数字中国[J]</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>From zero to one: A perspective on citing</t>
+          <t>突发公共卫生事件利益相关者在社交媒体中的关注点及演化模式[J]</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Result diversification in image retrieval based on semantic distance</t>
+          <t>网络环境下非正式社会信息交流过程的理论思考[J]</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Loops in publication citation networks</t>
+          <t>微信群信息交流网络中的关键节点识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Understanding the cultural concerns of libraries based on automatic image analysis</t>
+          <t>基于价值链的数据管理理论思考[J]</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>A divergence mean-based geometric detector with a pre-processing procedure</t>
+          <t>社交博客标签分布的布拉德福定律验证分析[J]</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Number versus structure: towards citing cascades</t>
+          <t>基于事件要素的组合模型微博热点事件摘要提取[J]</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Mining frequent subgraphs from tremendous amount of small graphs using MapReduce</t>
+          <t>应急决策活动中的情报监督问题思考[J]</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>Feature Extraction of Electric Field Distribution and its Application in Discharge Voltage Prediction of Large Sphere-Plane Air Gaps</t>
+          <t>微信群内部的会话网络结构及关键节点测度研究[J]</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Functional structure identification of scientific documents in computer science</t>
+          <t>混合关键词选择策略对共词分析效果的影响研究[J]</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>A Method for Extracting Road Boundary Information from Crowdsourcing Vehicle GPS Trajectories</t>
+          <t>文献被引片段特征分析与识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>A document expansion framework for tag-based image retrieval</t>
+          <t>应急知识库系统构建的关键问题与模块划分研究[J]</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Efficient and Scalable Mining of Frequent Subgraphs Using Distributed Graph Processing Systems</t>
+          <t>知识吸收机制对知识增长绩效的影响研究[J]</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Visible to near-infrared photodetectors based on MoS2 vertical Schottky junctions</t>
+          <t>基于被引片段识别的科技文摘综述[J]</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>False data separation for data security in smart grids</t>
+          <t>突发公共卫生事件微博影响力的预测研究[J]</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Rapid and Sensitive Detection of Avermectin Residues in Edible Oils by Magnetic Solid-Phase Extraction Combined with Ultra-High-Pressure Liquid Chromatography-Tandem Mass Spectrometry</t>
+          <t>国内突发事件预警研究评述[J]</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>An Interactive Web Mapping Visualization of Urban Air Quality Monitoring Data of China</t>
+          <t>合著作者研究兴趣相似性分布研究[J]</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Group-Level Influence Maximization with Budget Constraint</t>
+          <t>基于蝴蝶结模型的科研团队角色识别及其特征研究[J]</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>High-Performance Ferroelectric Polymer Side-Gated CdS Nanowire Ultraviolet Photodetectors</t>
+          <t>突发传染病微博影响力的预测研究[J]</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>High-quality infrared imaging with graphene photodetectors at room temperature</t>
+          <t>科研合作超网络下的知识扩散演化模型研究[J]</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>High-Sensitivity Floating-Gate Phototransistors Based on WS2 and MoS2</t>
+          <t>基于管理科学重要期刊的985高校管理科学十年研究主题多维分析[J]</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Inverse local context analysis A method for exhaustively gathering documents from limited accessible data sources</t>
+          <t>面向大城市病的政府政策有效性实证研究——以“北京市摇号购车”政策为例[J]</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Surface Plasmon-Enhanced Photodetection in Few Layer MoS2 Phototransistors with Au Nanostructure Arrays</t>
+          <t>不同语义环境下“小众专家”群体“稳定-变化”特征分析——基于MetaFilter的实证分析[J]</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>High-Responsivity Graphene/InAs Nanowire Heterojunction Near-Infrared Photodetectors with Distinct Photocurrent On/Off Ratios</t>
+          <t>共词分析过程中的若干问题研究[J]</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Analyzing evolution of research topics with NEViewer: a new method based on dynamic co-word networks</t>
+          <t>科研团队中知识粘滞的影响因素研究[J]</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Improved performance of HgCdTe infrared detector focal plane arrays by modulating light field based on photonic crystal structure</t>
+          <t>我国情报学变革与发展:“侵略”思索、范式演进与体系建设[J]</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Dependence of Ion-Implant-Induced LBIC Novel Characteristic on Excitation Intensity for Long-Wavelength HgCdTe-Based Photovoltaic Infrared Detector Pixel Arrays</t>
+          <t>基于类h混合中心性指标改进的作者影响力测度研究[J]</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>An uncontrolled open-label, multicenter study to monitor the antiviral activity and safety of inhaled zanamivir (as Rotadisk via Diskhaler device) among Chinese adolescents and adults with influenza-like illness</t>
+          <t>面向应急管理的仿真模型构建过程评述[J]</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>In situ transmission electron microscopy of electrochemical lithiation, delithiation and deformation of individual graphene nanoribbons</t>
+          <t>面向应急决策的虚拟参考咨询要素分析[J]</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>Rhetorical Relations for Information Retrieval</t>
+          <t>数据挖掘课程的知识体系构建[J]</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Fixed versus Dynamic Co-Occurrence Windows in TextRank Term Weights for Information Retrieval</t>
+          <t>科研合作网络的知识扩散机理研究[J]</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>A numerical sensitivity analysis to bentonite parameters for a long term geochemical evolution of a HLW repository in clay</t>
+          <t>竞争情报人员绩效影响因素分析[J]</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>Adapting Language Modeling Methods for Expert Search to Rank Wikipedia Entities</t>
+          <t>面向决策的“城市病”诊治情报服务探索[J]</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>CSIR at INEX 2008 Link-the-Wiki Track</t>
+          <t>从情报学视角看“城市病”:一个新的解析与应用[J]</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Okapi-based XML indexing</t>
+          <t>国家自然科学基金连续资助期间科研团队的合作稳定性分析[J]</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>The impact of Internet knowledge on college students' intention to continue to use the Internet</t>
+          <t>面向应急决策的智慧城市情报工程实践与应用[J]</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>WHU-XML: an XML based Digital Library System</t>
+          <t>基于知识超网络的科研合作行为实证研究和建模[J]</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>Automatic Hotspots Recognition and Trends Prediction in Traditional Medicine</t>
+          <t>科研社交网络的推荐系统对比分析[J]</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Cisr at INEX 2006</t>
+          <t>科研团队中学术带头人的合作特征及其对科研产出的影响[J]</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>XML-structured documents: Retrievable units and inheritance</t>
+          <t>智慧城市应急决策情报体系构建研究[J]</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Internet development in China</t>
+          <t>工程化与平行化的融合:大数据时代下的应急决策情报服务构思[J]</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Topic analysis of academic disciplines based on prolific and authoritative researchers</t>
+          <t>基于信息流的城市智慧应急响应机制[J]</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Identifying core policy instruments based on structural holes: A case study of China's nuclear energy policy</t>
+          <t>基于语义网络的研究兴趣相似性度量方法[J]</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>A bibliometrics-based research framework for exploring policy evolution: A case study of China's information technology policies</t>
+          <t>基于合作网络中心性指标的科研团队学术带头人识别研究[J]</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>A bibliometric study of China's science and technology policies: 1949-2010</t>
+          <t>突发社会安全事件网络舆情演化的生存分析——基于70起重大社会安全事件的分析[J]</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Basic research is overshadowed by applied research in China: a policy perspective</t>
+          <t>应急决策情报体系:历史演进、内涵定位与发展思考[J]</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Government funded renewable energy innovation in China</t>
+          <t>面向应急决策的专家意见融合研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>工程化思维下的智库情报机能研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>面向决策的智库协同创新情报服务:功能定位与体系构建[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>共现分析中的关键词选择与语义度量方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>智能时代中小企业信息化(二)——信息环境、信息化现状与信息化战略[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>社会语义网络结构分析——以MetaFilter为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>网络信息流与现实信息流交互下的突发事件衍生方式分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>基于社会网络分析的科技创新团队知识共享研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>区域人才素质的影响因素与作用机理——基于多水平结构方程模型的分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>情报视角下的智库建设研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>情报视角下的突发事件应急决策研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>应急参考咨询团队构建模式研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>关于突发事件情报失察的若干探讨[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>突发自然灾害事件网络媒体报道的周期特征分析——以地震和台风灾害为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>知识缺口视域下科研团队成员选择研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>“小众专家”特征识别——基于MetaFilter的实证分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>多阶段多决策主体应急情报需求及其作用机理分析——以城市应急管理为背景[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>基于现行法规条例的我国信息系统工程承建方资质条件探析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>面向应急决策的专家参考咨询过程探讨[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>关联规则在Web日志挖掘中的研究与应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>城市突发事件网络信息传播时序变化规律研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>竞争情报活动中“社区—技术”模式研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>情报视角下的城市智慧应急研究——兼谈熵理论的引入[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>关于智慧城市与城市应急决策情报体系[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>突发公共事件网络舆情传播过程研究——以网络组织为视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>社交网站用户个人信息披露意愿影响因素研究——以新浪微博为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>作者合著网络中研究兴趣相似性实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>情报视角下的突发事件监测与识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>突发公共事件网络舆情在网络媒体中的传播过程[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>国内外高校图书馆读者培训讲座的调查与分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>网络搜索关键词时序变化特征研究——以H7N9禽流感关键词实验为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>网络视角下的应急情报体系“智慧”建设主题探讨[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>利用主题标引进行查询重排序[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>用户主导下的专家检索可信度评测机制研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>一种基于句法分析的情感标签抽取方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>一种基于OKM的研究领域专家图谱构建方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>信息搜寻中用户查询重构研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>元网络视角下科研团队建模及分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>网络搜索关键词“稳定—突变”特征的识别——基于关键词集中度变化率的分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>ShareNet情景下的竞争情报组织模型研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>多源专家特征信息融合研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>基于社会网络分析的科研团队发现研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>医学信息检索中一种基于概念的查询相关模型[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>专利权人合作网络的社群结构分析——以燃料电池电动汽车专利为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>突发公共事件网络舆情研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>基于模糊匹配的跨学科专家团队发现算法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>基于综合引用网络的专利价值评价研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>文本图表示模型及其在文本挖掘中的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>突发事件情境下网络问答社区用户构成和行为分析——基于问题胶囊事件的实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>基于词词关联矩阵改进的模糊检索研究——模糊语词转模糊概念检索方法探究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>敦煌壁画数字图像语义描述方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>中美图情科研机构研究领域比较研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>突发公共卫生事件网络语料库系统构建[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>从中文问答社区信息内容透视公众针对突发事件的信息需求——基于问题胶囊事件的实验研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>国内图书馆学情报学科研机构研究领域的可视化挖掘[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>突发事件网络新闻与网民信息需求表达的协整分析——基于问题胶囊事件的实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>基于社会网络的知识共享研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>多重关系视角下企业技术竞争优势综合评价模型研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>基于共享与利用的医院隐性知识管理路径与构想[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>承载电力广域控制信息的复杂网络可靠性研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>网络舆情突发事件参与者群体构成及行为的实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>电力通信网可靠性模型及仿真[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>人际情报网络自组织机理研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>基于社会网络分析的学术团体合著研究——以武汉大学计算机学院为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>基于语义的共词分析方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Web2</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>基于语义共词分析的我国人际情报网络研究探析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>国内近十年竞争情报领域研究热点分析——基于共词分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>基于语义的情感挖掘系统的设计与实现[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>企业隐性知识测评指标及其权重计算方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>人际情报网络与知识本体网络之间关系研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>企业隐性知识管理方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>基于词汇链的关键词自动标引方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>一种基于关键词加权的共词分析方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>国外图书情报类期刊热点主题及发展趋势研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>句子情感分析及其关键问题[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>2005-2008年我国竞争情报论文统计分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>基于文本情感分类的网络推手识别[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>基于意见挖掘的城市形象网络监测系统初探[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>基于AHP与FCE方法的企业间竞争合作关系强度识别模型[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>汽车业供应链物流能力中的IT价值体现及应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>互联网行业的CTI流程研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>企业知识协同研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>基于SOM的手机电子商务交易聚类分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>铁路网络经济特性及改革发展路径研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>信息可视化应用研究进展[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>资源依赖、制度逻辑与跨国并购后整合[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>破解OFDI建立模式中的“文化距离悖论”：注意力的调节作用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>坚持独立或寻求依赖？“蛇吞象”式跨国并购的整合策略研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>数字经济背景下浙江省创新型经济发展评价及赋能对策研究——基于2014—2017年六省市的对比分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>产品开发经验在企业国际扩张中的作用机制[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>国际多元化与企业绩效关系之元分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>基于二次创新理论的吉利跨国并购案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>管理层权力、东道国制度环境与进入模式选择[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>开启全球化创新:建设海外创新孵化中心[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>母国网络关系嵌入性与企业跨国动态能力——来自中国的经验证据[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>合资还是独资?——产业政策对中国跨国企业FDI进入模式的影响[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>全球制造网络企业吸收能力提升机制研究:基于过程的视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>旗舰企业对本地企业知识转移的影响因素研究——基于全球制造网络的视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>新兴在线软件服务的用户接受影响因素研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>网络嵌入性视角下基于知识的动态能力构建机制[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Stinchfield</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>外商直接投资与我国产业技术边缘化的实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>共享性资源对集群企业竞争优势作用机理的实证研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>我国IT企业技术获取模式与企业绩效的关系研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>外商直接投资对中国工业行业技术创新的影响研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>技术体制框架下FDI影响产业技术边缘化的研究——以中国手机行业为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>国家创新系统视角下的中印比较[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>资源约束条件下的创新路径[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>基于产业技术创新的FDI技术溢出研究述评[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>技术引进与中国制造产业的边缘化风险[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>中国行业收入分配实证分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>基于价值网络的战略联盟研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>我国制药企业技术创新的战略网络研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>社会资本在企业开展产学研合作中的作用探析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>浙江国有工业企业退出绩效实证分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>基于混合方法的“双十一”消费者购买意愿研究：情感和认知视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>中国商用客机后发技术追赶模式研究：复杂系统管理视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>复杂产品创新生态系统互补性管理研究：以商飞C919为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>推动企业技术创新能力和创新主体地位——基于数字化资源视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>强化企业创新主体地位研究专题[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>中国载人航天事业的科技探索与产业变革[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>研究型大学服务国家战略工程研究：以长鹰无人机原始创新为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>转型过程中管理组织惯例二重性探究——基于研华股份有限公司的案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>激活“工业遗产”价值的李渡酒业转型案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>高校牵头国家重大科技项目科研组织模式研究——以北航长鹰无人机为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>智能互联产品重塑企业边界研究：小米案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>晨光生物的企业边界稳定与突破之道[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>应对重大突发公共卫生事件的敏捷性机制研究——四川省新冠疫情案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>中国无人机产业从跟跑到并跑的技术跨越[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>拨云见日——揭示中国盾构机技术赶超的艰辛与辉煌[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>中国传统文创产品与用户匹配机制研究——以宇弦陶瓷为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>复杂产品后发技术追赶的主供模式案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>数字化转型研究：整合框架与未来展望[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>新时代构建专业学位案例论文新范式：以管理类论文为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>从工业遗产到文创产业平台:资源拼凑理论视角——以景德镇陶溪川为案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>基于共同演化的B2B平台策略研究:京东新通路案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>百年老字号“月盛斋”的互联网转型之路[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>构建重大突发公共卫生事件治理体系：基于中国情景的案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>价值共创促进中国航展商业生态系统的演化过程研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>如何处理新旧业务的商业化冲突[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>创新生态系统的核心企业创新悖论管理案例研究:双元能力视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>IT能力与组织管控促进复杂产品研发敏捷性研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>基于互补性资产的软件企业云计算技术变革研究——以中标软件为案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>互联网企业战略转型,路在何方?[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>在位企业如何开拓新技术市场:商业模式与组织身份共演视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>基于信息处理的复杂产品制造敏捷性研究:以沈飞公司为案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>基于能力重塑的互联网企业战略转型研究:百度案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>多层级双元能力的组合促进高科技企业战略转型研究——以联想移动为案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>战略性新兴产业情境下的企业商业模式动态转换:基于太阳能光伏企业案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>从敏捷性视角谈知识生态系统的构建——以北航案例中心为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>DFH小卫星复杂产品创新生态系统的动态演化研究:战略逻辑和组织合作适配性视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>社交网络游戏企业的快经营商业模式研究——基于企业伦理视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>以SF民机转包生产商为核心企业的复杂产品创新生态系统演化研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>跨国服务企业对华知识转移模式研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>基于意念构建和动态服务属性管理的服务质量提升[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>共议管理学(三)——对《再问管理学》的回应[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>基于资源演化的跨国公司在华合资企业控制权的动态配置——科隆公司的案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>基于朗坤与联创案例的中国农业物联网企业商业模式研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>组织边界跨越与IT能力的协同演化:海尔信息系统案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>双元能力促进企业服务敏捷性——海底捞公司发展历程案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>汽车模具制造能力演化路径与能力构筑竞争:北京比亚迪模具案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>研发-营销界面市场协同机制研究:“海尔”案例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>基于模块化架构的产品竞争力研究——以海信平板彩电为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>组织因素对新产品开发绩效影响的理论与案例研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>融合社会资本与知识存量的合作创新网络演化机制研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>科研合作网络演化机制研究：以光刻领域为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>新时期管理学领域学科交叉研究——基于科学基金重大研究计划的视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>基于主题覆盖度的科研项目评审专家组推荐方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>学术论文创新质量评价研究—以多能干细胞技术为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>从突破性创新到颠覆性创新：内涵、特征与演化[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>基础研究资助导向识别及演化分析：以NSF为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>转型创新研究：主题演化与未来展望[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>技术预测研究现状、趋势及未来思考:数据分析视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>科学推动下技术机会发现方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>动态主题网络视角下的突破性创新主题识别:以区块链领域为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>多维视角下颠覆性技术识别：研究进展与未来思考[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>德国科技人才资助体系与资助机制研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>融合细分学科与文本内容的中美英ESI学科布局特征探析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>基于突变-融合视角的颠覆性技术主题演化研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>面向战略决策的科技情报智能分析系统实践[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>破“四唯”和“唯SCI”政策的学者评论分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>关键核心技术竞争态势评估研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>融合聚类信息的技术主题图可视化方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>基于专利计量的颠覆性技术识别方法研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>城市污水再生与循环利用的关键基础科学问题[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>管理科学与工程学科“十四五”发展规划以及若干思考[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>管理科学与工程学科“十四五”重点前沿领域的顶层布局与具体内容：面向基础科学理论与国家重大需求[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>管理科学与工程理论与方法突破若干重点前沿领域[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>国家自然科学基金管理科学与工程学科的申请代码与学科布局：面向基础理论与时代变革[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>平台供应链的管理理论与方法前沿课题[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>中心化平均住院日和标准化平均住院日有效性研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>自然灾害对企业价值的实质影响——基于中国上市公司地震公告的事件研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>在O2O情景下的送取货集成决策[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>如何定量识别与评估环境中物质的转化途径？[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>“四深”微生物的地质作用——从气候环境变化到生态灾难[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>“地下水与生态环境”专辑前言[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>点源排放六氯苯在沉积物中的分布研究[A]</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>基于支持向量机的城市生态足迹动态化评价[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>化工资源回收利用与废水综合治理[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>生物化学实验课程中“变式”教学方式的探索[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>肝细胞肝癌免疫微环境与治疗研究新进展[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>细胞生物学实验课程中两种细胞凋亡检测方法的建立[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>寡肽组装体及其肿瘤光热免疫治疗应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>肽基超分子胶体[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>基于生物启发材料的组装设计疏水纳米药物[A]</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>ChatGPT为代表的大模型对信息资源管理的影响[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>数据分类分级：研究趋势、政策标准与实践进展[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>人智交互体验研究：为人本人工智能发展注入新动力[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>学术文本词汇功能识别——在论文新颖性度量上的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>基于IPC关联的专利技术和产业双向分析框架研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>数智赋能的情报学学科发展趋势探析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>基于问题-方法组合的科技论文新颖性度量与创新类型识别[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>学术论文创新贡献句识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>多特征融合的关键词语义功能识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>基于深度学习算法的学术查询意图分类器构建[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>学术文本词汇功能识别——基于BERT向量化表示的关键词自动分类研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>基于科技文献的新兴主题识别研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>多层次融合的学术文本结构功能识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>领域无关学术文献词汇功能标准化数据集构建及分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>基于引用共词网络的领域基础词汇发现研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>关键词共现网络视角下的学科基础词汇发现[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>图书馆自动问答系统的设计与实现[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>基于查询表达式特征的时态意图识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>学术文本关键词语义功能数据集构建与分析——以Journal of Informetrics为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>国外iSchools院校图书情报与档案管理研究生课程调研与特征分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>一种新兴的学科领域历史根源探究方法:RPYS[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>学术文献引文上下文自动识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>大数据驱动下的图书情报学科热点领域挖掘——面向WOS题录数据的实证视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>学术文本的结构功能识别——基于段落的识别[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>基于多标签分类的引文全局功能识别研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>学术文本的结构功能识别——基于章节内容的识别[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>美国图书情报硕士教育质量保障体系调查与分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>基于NEViewer的国内外图书情报领域研究热点对比分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>中美图书情报硕士专业学位教育质量保障体系比较分析及启示[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>检索结果多样化研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>学术文本的结构功能识别——功能框架及基于章节标题的识别[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>查询意图研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>基于社会网络的学科主题聚类研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>跨语言信息检索中的命名实体识别与翻译[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>PLSA在图情领域专家专长识别中的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>用户查询中潜在时间意图分析及其检索建模[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>基于SOM的领域热点主题探测[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>XML检索研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>基于专长词表的图情领域专家检索与评价[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>网络引文不可追溯性及其解决方案研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>信息检索中的相关性判断和系统评价述评[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>基于XML文本片段的图像检索实现与评价[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>情境驱动的交互式信息检索集成研究框架[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>元素级XML检索模型构建的关键问题与解决方案研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>基于XML的多媒体信息检索[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>基于认知观点的信息检索交互模型[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>中国高分子合成化学的研究与发展动态[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>PEBBLEs技术新进展的研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>面向多模态数据的新型数据库技术专题前言[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>基于空间位置关系的轨迹数据高效降维和查询算法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>面向关系型数据与知识图谱的数据集成技术综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>基于联邦学习的跨源数据错误检测方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="481">
+      <c r="A481" t="inlineStr">
+        <is>
+          <t>前言[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>空间数据智能：概念、技术与挑战[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>分布式的增量式张量Tucker分解方法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>数据模型及其发展历程[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>无需感染时间信息的传播网络快速推断算法[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>查询结果可用性研究综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>基于Multi-Agent的分布式文本聚类模型[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>不确定数据查询处理[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>受限相互最近邻查询处理[A]</t>
+        </is>
+      </c>
+    </row>
+    <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>时空数据库查询处理关键技术研究[D]</t>
+        </is>
+      </c>
+    </row>
+    <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>新一代数据库技术在CSCW中的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="492">
+      <c r="A492" t="inlineStr">
+        <is>
+          <t>时空数据库研究进展综述[A]</t>
+        </is>
+      </c>
+    </row>
+    <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>基于SQL_DMO和ActiveX的数据分发监控系统的设计与实现[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>网站信息动态发布系统(WIDPS)的设计与实现[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>XML技术在电子政务信息交换中的应用研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>基于数字平台的社会风险协同治理模式研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>政府支持对企业管理者风险感知的影响:基于动态能力视角的技术创新型企业分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>新冠肺炎疫情背景下母子公司空间布局对企业韧性能力的影响分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>考虑区域疫情风险不确定性的公共卫生应急医疗机构选址研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>中国五大城市群城市韧性水平时空演变研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>专业学位研究生双向国际化改革实践及其经验启示[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>我国应急管理体系灾害信息可视化发展探讨[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>纵向府际关系视角下的政府生态治理态度与注意力配置[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="504">
+      <c r="A504" t="inlineStr">
+        <is>
+          <t>地方政府安全生产注意力对区域安全事故管理效果的影响分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>国外对中国制造产品召回分析与建议[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>创造性团队中谦卑美德对团队地位的作用机制研究——基于能力和调节焦点视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>共同机构所有权与股价崩盘风险[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>陕西省农产品冷链物流断链风险管控[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>创造性团队中地位竞争对团队创新的作用机制——基于解决公共产品困境和创新奖励视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>服务进程中消费者对子项目顺序的遵从性研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>重大疫情下疫苗冷链物流在物联网环境中的风险评估[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>健康医疗大数据治理赋能大健康产业升级[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>重大疫情风险下冷链物流配送中心选址模型[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>边界理论视角下不合规任务对员工家庭贬损行为的影响研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>基于组态视角的突发事件应急信息传播效果研究——以“安徽疾控”为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>支持多物理耦合的粒子输运算法与软件研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>基于皮肤微生态的炎症性皮肤病和衰老治疗策略[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>靶向递药新技术与新策略[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>基于政策目标网络的人工智能政策布局与优化分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>图像分析在哲学社会科学中的研究路径与展望[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>学科交叉视角下人工智能治理领域知识流动与研究主题的国际比较研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>面向公共数据融合的个人信息风险演化与保护机制[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>网络分析方法在公共管理与公共政策研究中的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>人工智能社会实验的基础理论与方法——《社会实验理论与方法评介》新著概要[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>第四研究范式：数据驱动下的人文社科研究模式跃迁[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>学科交叉下的图书馆学[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>基于场景生态的人工智能社会影响整合分析框架[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>文本分析方法在公共管理与公共政策研究中的应用[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>中美人工智能治理研究比较分析——基于文献计量视角[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>“计算社会科学”与“社会计算”概念辨析与研究热点比较分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>社会实验:人工智能社会影响研究的新路径[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>政策执行网络研究：一个文献综述[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>基于政策工具的我国科技金融发展政策文本量化研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>基于耦合协调模型的区域科技协同创新评价研究——以沪嘉杭G60科技创新走廊为例[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>中德人工智能发展政策与战略布局的比较研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>责任与利益:基于政策文献量化分析的中国科技创新政策府际合作关系演进研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>基于共词分析的中国科技创新政策变迁量化分析[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>用文献计量研究重塑政策文本数据分析——政策文献计量的起源、迁移与方法创新[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>中国高新技术产业税收优惠政策文本量化研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>政策工具视角的中国风能政策文本量化研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>区域贸易协议争端解决机制构建与实效反差研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>863计划利益主体的知识产权平衡机制研究[J]</t>
+        </is>
+      </c>
+    </row>
+    <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>世界主要国际组织的档案信息服务[J]</t>
         </is>
       </c>
     </row>
